--- a/Destination/Flows .xlsx
+++ b/Destination/Flows .xlsx
@@ -455,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3141,9 +3141,11 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
+      <c r="B142" t="n">
+        <v>-145.5696</v>
+      </c>
       <c r="C142" t="n">
-        <v>93144</v>
+        <v>52.73</v>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
@@ -3314,7 +3316,7 @@
         <v>-677.9696000000001</v>
       </c>
       <c r="D159" t="n">
-        <v>100874.25</v>
+        <v>80709.946</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
@@ -3338,24 +3340,10 @@
         <v>-1237.3696</v>
       </c>
       <c r="D161" t="n">
-        <v>106407.6315789474</v>
+        <v>101089.8865</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>-145.5696</v>
-      </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3368,7 +3356,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5581,7 +5569,7 @@
         <v>-218.27529025</v>
       </c>
       <c r="N52" t="n">
-        <v>399.77</v>
+        <v>412.1</v>
       </c>
       <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr">
@@ -5593,7 +5581,7 @@
         <v>-218.27529025</v>
       </c>
       <c r="R52" t="n">
-        <v>399.77</v>
+        <v>412.1</v>
       </c>
     </row>
     <row r="53">
@@ -5681,7 +5669,7 @@
         <v>-205.27529025</v>
       </c>
       <c r="N54" t="n">
-        <v>419.675</v>
+        <v>418.16</v>
       </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr">
@@ -5693,7 +5681,7 @@
         <v>-205.27529025</v>
       </c>
       <c r="R54" t="n">
-        <v>419.675</v>
+        <v>418.16</v>
       </c>
     </row>
     <row r="55">
@@ -5781,7 +5769,7 @@
         <v>208.8997097499998</v>
       </c>
       <c r="N56" t="n">
-        <v>442.0052631578948</v>
+        <v>440.51</v>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr">
@@ -5793,7 +5781,7 @@
         <v>208.8997097499998</v>
       </c>
       <c r="R56" t="n">
-        <v>442.0052631578948</v>
+        <v>440.51</v>
       </c>
     </row>
     <row r="57">
@@ -5802,16 +5790,30 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>-1.031404</v>
+      </c>
+      <c r="C57" t="n">
+        <v>12.840846</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-257.3666</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9.19851375</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-5.460006</v>
+      </c>
+      <c r="G57" t="n">
+        <v>23.54336</v>
+      </c>
       <c r="H57" t="n">
-        <v>410.54</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>412.1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>-218.27529025</v>
+      </c>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
@@ -5821,44 +5823,6 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.515702</v>
-      </c>
-      <c r="C58" t="n">
-        <v>6.420423</v>
-      </c>
-      <c r="D58" t="n">
-        <v>-128.6833</v>
-      </c>
-      <c r="E58" t="n">
-        <v>7.358811</v>
-      </c>
-      <c r="F58" t="n">
-        <v>-2.730003</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-11.77168</v>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="n">
-        <v>-218.27529025</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5871,7 +5835,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7664,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>606.11</v>
+        <v>603.24</v>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
@@ -7676,7 +7640,7 @@
         <v>0</v>
       </c>
       <c r="O52" t="n">
-        <v>606.11</v>
+        <v>603.24</v>
       </c>
     </row>
     <row r="53">
@@ -7746,7 +7710,7 @@
         <v>-2.800000000000001</v>
       </c>
       <c r="K54" t="n">
-        <v>614.2225</v>
+        <v>612.0260000000001</v>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
@@ -7758,7 +7722,7 @@
         <v>-2.800000000000001</v>
       </c>
       <c r="O54" t="n">
-        <v>614.2225</v>
+        <v>612.0260000000001</v>
       </c>
     </row>
     <row r="55">
@@ -7828,7 +7792,7 @@
         <v>2411.2</v>
       </c>
       <c r="K56" t="n">
-        <v>671.0652631578947</v>
+        <v>667.674</v>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
@@ -7840,7 +7804,7 @@
         <v>2411.2</v>
       </c>
       <c r="O56" t="n">
-        <v>671.0652631578947</v>
+        <v>667.674</v>
       </c>
     </row>
     <row r="57">
@@ -7849,13 +7813,21 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
       <c r="E57" t="n">
-        <v>603.03</v>
-      </c>
-      <c r="F57" t="inlineStr"/>
+        <v>603.24</v>
+      </c>
+      <c r="F57" t="n">
+        <v>0</v>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -7865,35 +7837,6 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="n">
-        <v>0</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7906,7 +7849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9866,13 +9809,21 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>-17.593434</v>
+      </c>
+      <c r="C57" t="n">
+        <v>1.001788</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
       <c r="E57" t="n">
         <v>267.89</v>
       </c>
-      <c r="F57" t="inlineStr"/>
+      <c r="F57" t="n">
+        <v>-16.591646</v>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -9882,35 +9833,6 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>-8.796716999999999</v>
-      </c>
-      <c r="C58" t="n">
-        <v>-1.001788</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="n">
-        <v>-16.591646</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11917,7 +11839,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>2025-11-18</t>
+          <t>2025-11-17</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -11954,7 +11876,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13762,12 +13684,18 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>12.706546</v>
+      </c>
+      <c r="C57" t="n">
+        <v>-0.566538</v>
+      </c>
       <c r="D57" t="n">
         <v>288.12</v>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>12.140008</v>
+      </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -13777,32 +13705,6 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>6.353273</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.566538</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="n">
-        <v>12.140008</v>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -13815,7 +13717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15623,12 +15525,18 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
       <c r="D57" t="n">
         <v>204.08</v>
       </c>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -15638,32 +15546,6 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -15676,7 +15558,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O43"/>
+  <dimension ref="A1:O42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16974,7 +16856,7 @@
         <v>-20.74164</v>
       </c>
       <c r="K37" t="n">
-        <v>342.55</v>
+        <v>341.64</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr">
@@ -16986,7 +16868,7 @@
         <v>-20.74164</v>
       </c>
       <c r="O37" t="n">
-        <v>342.55</v>
+        <v>341.64</v>
       </c>
     </row>
     <row r="38">
@@ -17056,7 +16938,7 @@
         <v>-123.54164</v>
       </c>
       <c r="K39" t="n">
-        <v>349.1174999999999</v>
+        <v>347.622</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr">
@@ -17068,7 +16950,7 @@
         <v>-123.54164</v>
       </c>
       <c r="O39" t="n">
-        <v>349.1174999999999</v>
+        <v>347.622</v>
       </c>
     </row>
     <row r="40">
@@ -17138,7 +17020,7 @@
         <v>2666.05836</v>
       </c>
       <c r="K41" t="n">
-        <v>354.1847368421052</v>
+        <v>353.5575</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr">
@@ -17150,7 +17032,7 @@
         <v>2666.05836</v>
       </c>
       <c r="O41" t="n">
-        <v>354.1847368421052</v>
+        <v>353.5575</v>
       </c>
     </row>
     <row r="42">
@@ -17159,13 +17041,21 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-70.86309</v>
+      </c>
+      <c r="D42" t="n">
+        <v>50.12145</v>
+      </c>
       <c r="E42" t="n">
-        <v>341.9</v>
-      </c>
-      <c r="F42" t="inlineStr"/>
+        <v>341.64</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-20.74164</v>
+      </c>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
@@ -17175,35 +17065,6 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>0</v>
-      </c>
-      <c r="C43" t="n">
-        <v>-70.86309</v>
-      </c>
-      <c r="D43" t="n">
-        <v>-16.70715</v>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="n">
-        <v>-20.74164</v>
-      </c>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17216,7 +17077,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19009,7 +18870,7 @@
         <v>-296.87194</v>
       </c>
       <c r="K52" t="n">
-        <v>4109.83</v>
+        <v>4055.5</v>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
@@ -19021,7 +18882,7 @@
         <v>-296.87194</v>
       </c>
       <c r="O52" t="n">
-        <v>4109.83</v>
+        <v>4055.5</v>
       </c>
     </row>
     <row r="53">
@@ -19091,7 +18952,7 @@
         <v>251.1280599999999</v>
       </c>
       <c r="K54" t="n">
-        <v>4147.530000000001</v>
+        <v>4129.124000000001</v>
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
@@ -19103,7 +18964,7 @@
         <v>251.1280599999999</v>
       </c>
       <c r="O54" t="n">
-        <v>4147.530000000001</v>
+        <v>4129.124000000001</v>
       </c>
     </row>
     <row r="55">
@@ -19173,7 +19034,7 @@
         <v>-3056.37194</v>
       </c>
       <c r="K56" t="n">
-        <v>4052.786315789474</v>
+        <v>4052.922</v>
       </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
@@ -19185,7 +19046,7 @@
         <v>-3056.37194</v>
       </c>
       <c r="O56" t="n">
-        <v>4052.786315789474</v>
+        <v>4052.922</v>
       </c>
     </row>
     <row r="57">
@@ -19194,13 +19055,21 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>-337.1826</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>40.31066</v>
+      </c>
       <c r="E57" t="n">
-        <v>4053.21</v>
-      </c>
-      <c r="F57" t="inlineStr"/>
+        <v>4055.5</v>
+      </c>
+      <c r="F57" t="n">
+        <v>-296.87194</v>
+      </c>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
@@ -19210,35 +19079,6 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>-337.1826</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>40.31066</v>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="n">
-        <v>-296.87194</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19251,7 +19091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P51"/>
+  <dimension ref="A1:P50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20954,7 +20794,7 @@
         <v>54.03709199999999</v>
       </c>
       <c r="L45" t="n">
-        <v>51.4</v>
+        <v>50.33</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
@@ -20966,7 +20806,7 @@
         <v>54.03709199999999</v>
       </c>
       <c r="P45" t="n">
-        <v>51.4</v>
+        <v>50.33</v>
       </c>
     </row>
     <row r="46">
@@ -21042,7 +20882,7 @@
         <v>335.537092</v>
       </c>
       <c r="L47" t="n">
-        <v>51.9575</v>
+        <v>51.63200000000001</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
@@ -21054,7 +20894,7 @@
         <v>335.537092</v>
       </c>
       <c r="P47" t="n">
-        <v>51.9575</v>
+        <v>51.63200000000001</v>
       </c>
     </row>
     <row r="48">
@@ -21128,7 +20968,7 @@
         <v>-593.462908</v>
       </c>
       <c r="L49" t="n">
-        <v>49.03942105263157</v>
+        <v>49.10395</v>
       </c>
       <c r="M49" t="inlineStr"/>
       <c r="N49" t="inlineStr">
@@ -21140,7 +20980,7 @@
         <v>-593.462908</v>
       </c>
       <c r="P49" t="n">
-        <v>49.03942105263157</v>
+        <v>49.10395</v>
       </c>
     </row>
     <row r="50">
@@ -21149,14 +20989,24 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>69.57483999999999</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-15.537748</v>
+      </c>
       <c r="F50" t="n">
-        <v>50.37</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
+        <v>50.33</v>
+      </c>
+      <c r="G50" t="n">
+        <v>54.03709199999999</v>
+      </c>
       <c r="H50" t="inlineStr"/>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -21166,38 +21016,6 @@
       <c r="N50" t="inlineStr"/>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>34.78742</v>
-      </c>
-      <c r="E51" t="n">
-        <v>7.768874</v>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="n">
-        <v>54.03709199999999</v>
-      </c>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -21210,7 +21028,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q51"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -23050,7 +22868,7 @@
         <v>-5.759454</v>
       </c>
       <c r="M45" t="n">
-        <v>63.81</v>
+        <v>29.43</v>
       </c>
       <c r="N45" t="inlineStr"/>
       <c r="O45" t="inlineStr">
@@ -23062,7 +22880,7 @@
         <v>-5.759454</v>
       </c>
       <c r="Q45" t="n">
-        <v>63.81</v>
+        <v>29.43</v>
       </c>
     </row>
     <row r="46">
@@ -23144,7 +22962,7 @@
         <v>28.840546</v>
       </c>
       <c r="M47" t="n">
-        <v>63.5475</v>
+        <v>56.724</v>
       </c>
       <c r="N47" t="inlineStr"/>
       <c r="O47" t="inlineStr">
@@ -23156,7 +22974,7 @@
         <v>28.840546</v>
       </c>
       <c r="Q47" t="n">
-        <v>63.5475</v>
+        <v>56.724</v>
       </c>
     </row>
     <row r="48">
@@ -23238,7 +23056,7 @@
         <v>-211.459454</v>
       </c>
       <c r="M49" t="n">
-        <v>63.86157894736843</v>
+        <v>62.14000000000001</v>
       </c>
       <c r="N49" t="inlineStr"/>
       <c r="O49" t="inlineStr">
@@ -23250,7 +23068,7 @@
         <v>-211.459454</v>
       </c>
       <c r="Q49" t="n">
-        <v>63.86157894736843</v>
+        <v>62.14000000000001</v>
       </c>
     </row>
     <row r="50">
@@ -23259,15 +23077,27 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-2.104372</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-3.655082</v>
+      </c>
       <c r="G50" t="n">
-        <v>63.76</v>
-      </c>
-      <c r="H50" t="inlineStr"/>
+        <v>29.43</v>
+      </c>
+      <c r="H50" t="n">
+        <v>-5.759454</v>
+      </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
@@ -23277,41 +23107,6 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="n">
-        <v>-1.052186</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1.827541</v>
-      </c>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="n">
-        <v>-5.759454</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -23324,7 +23119,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F162"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26012,9 +25807,11 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr"/>
+      <c r="B142" t="n">
+        <v>-193.0416</v>
+      </c>
       <c r="C142" t="n">
-        <v>3070</v>
+        <v>22.85</v>
       </c>
       <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr"/>
@@ -26185,7 +25982,7 @@
         <v>-614.4416</v>
       </c>
       <c r="D159" t="n">
-        <v>3351.75</v>
+        <v>2685.97</v>
       </c>
       <c r="E159" t="inlineStr"/>
       <c r="F159" t="inlineStr"/>
@@ -26209,24 +26006,10 @@
         <v>-868.9416</v>
       </c>
       <c r="D161" t="n">
-        <v>3651.315789473684</v>
+        <v>3469.8925</v>
       </c>
       <c r="E161" t="inlineStr"/>
       <c r="F161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B162" t="n">
-        <v>-193.0416</v>
-      </c>
-      <c r="C162" t="inlineStr"/>
-      <c r="D162" t="inlineStr"/>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -26239,7 +26022,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -27908,7 +27691,7 @@
         <v>-8.514310999999999</v>
       </c>
       <c r="L43" t="n">
-        <v>4.635</v>
+        <v>4.43</v>
       </c>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
@@ -27920,7 +27703,7 @@
         <v>-8.514310999999999</v>
       </c>
       <c r="P43" t="n">
-        <v>4.635</v>
+        <v>4.43</v>
       </c>
       <c r="Q43" t="inlineStr"/>
     </row>
@@ -27998,7 +27781,7 @@
         <v>-239.014311</v>
       </c>
       <c r="L45" t="n">
-        <v>4.641249999999999</v>
+        <v>4.598999999999999</v>
       </c>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
@@ -28010,7 +27793,7 @@
         <v>-239.014311</v>
       </c>
       <c r="P45" t="n">
-        <v>4.641249999999999</v>
+        <v>4.598999999999999</v>
       </c>
       <c r="Q45" t="inlineStr"/>
     </row>
@@ -28088,7 +27871,7 @@
         <v>-697.7143110000001</v>
       </c>
       <c r="L47" t="n">
-        <v>4.238736842105263</v>
+        <v>4.2483</v>
       </c>
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
@@ -28100,7 +27883,7 @@
         <v>-697.7143110000001</v>
       </c>
       <c r="P47" t="n">
-        <v>4.238736842105263</v>
+        <v>4.2483</v>
       </c>
       <c r="Q47" t="inlineStr"/>
     </row>
@@ -28110,14 +27893,24 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-8.514310999999999</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.569</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
+        <v>4.43</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-8.514310999999999</v>
+      </c>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -28128,39 +27921,6 @@
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>0</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
-      </c>
-      <c r="E49" t="n">
-        <v>-8.514310999999999</v>
-      </c>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="n">
-        <v>-8.514310999999999</v>
-      </c>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -28173,7 +27933,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -29465,7 +29225,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1414.81</v>
+        <v>1405.35</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
@@ -29477,7 +29237,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>1414.81</v>
+        <v>1405.35</v>
       </c>
     </row>
     <row r="46">
@@ -29535,7 +29295,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>1455.34</v>
+        <v>1445.342</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
@@ -29547,7 +29307,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>1455.34</v>
+        <v>1445.342</v>
       </c>
     </row>
     <row r="48">
@@ -29605,7 +29365,7 @@
         <v>-33.9</v>
       </c>
       <c r="I49" t="n">
-        <v>1437.55052631579</v>
+        <v>1435.9405</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
@@ -29617,7 +29377,7 @@
         <v>-33.9</v>
       </c>
       <c r="M49" t="n">
-        <v>1437.55052631579</v>
+        <v>1435.9405</v>
       </c>
     </row>
     <row r="50">
@@ -29626,11 +29386,15 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
       <c r="C50" t="n">
-        <v>1402.19</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
+        <v>1405.35</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -29640,29 +29404,6 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -29675,7 +29416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N51"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31104,7 +30845,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>1554.3</v>
+        <v>1549.84</v>
       </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
@@ -31116,7 +30857,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>1554.3</v>
+        <v>1549.84</v>
       </c>
     </row>
     <row r="46">
@@ -31180,7 +30921,7 @@
         <v>14.4</v>
       </c>
       <c r="J47" t="n">
-        <v>1586.0325</v>
+        <v>1578.794</v>
       </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
@@ -31192,7 +30933,7 @@
         <v>14.4</v>
       </c>
       <c r="N47" t="n">
-        <v>1586.0325</v>
+        <v>1578.794</v>
       </c>
     </row>
     <row r="48">
@@ -31256,7 +30997,7 @@
         <v>-46.07000000000001</v>
       </c>
       <c r="J49" t="n">
-        <v>1561.511052631579</v>
+        <v>1560.9275</v>
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
@@ -31268,7 +31009,7 @@
         <v>-46.07000000000001</v>
       </c>
       <c r="N49" t="n">
-        <v>1561.511052631579</v>
+        <v>1560.9275</v>
       </c>
     </row>
     <row r="50">
@@ -31277,12 +31018,18 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0</v>
+      </c>
       <c r="D50" t="n">
-        <v>1536.06</v>
-      </c>
-      <c r="E50" t="inlineStr"/>
+        <v>1549.84</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -31292,32 +31039,6 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
       <c r="N50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -31330,7 +31051,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -32620,7 +32341,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>5.012</v>
+        <v>30.96</v>
       </c>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr">
@@ -32632,7 +32353,7 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>5.012</v>
+        <v>30.96</v>
       </c>
     </row>
     <row r="46">
@@ -32690,7 +32411,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>5.036499999999999</v>
+        <v>10.2212</v>
       </c>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr">
@@ -32702,7 +32423,7 @@
         <v>0</v>
       </c>
       <c r="M47" t="n">
-        <v>5.036499999999999</v>
+        <v>10.2212</v>
       </c>
     </row>
     <row r="48">
@@ -32760,7 +32481,7 @@
         <v>1.9</v>
       </c>
       <c r="I49" t="n">
-        <v>5.022073684210526</v>
+        <v>6.31897</v>
       </c>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr">
@@ -32772,7 +32493,7 @@
         <v>1.9</v>
       </c>
       <c r="M49" t="n">
-        <v>5.022073684210526</v>
+        <v>6.31897</v>
       </c>
     </row>
     <row r="50">
@@ -32781,11 +32502,15 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B50" t="inlineStr"/>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
       <c r="C50" t="n">
-        <v>4.971</v>
-      </c>
-      <c r="D50" t="inlineStr"/>
+        <v>30.96</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
@@ -32795,29 +32520,6 @@
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0</v>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="n">
-        <v>0</v>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -36020,7 +35722,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D114"/>
+  <dimension ref="A1:D113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -37546,9 +37248,11 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
       <c r="C95" t="n">
-        <v>134.36</v>
+        <v>1.84</v>
       </c>
       <c r="D95" t="inlineStr"/>
     </row>
@@ -37677,7 +37381,7 @@
         <v>39.6</v>
       </c>
       <c r="D111" t="n">
-        <v>150.8</v>
+        <v>121.008</v>
       </c>
     </row>
     <row r="112">
@@ -37697,20 +37401,8 @@
         <v>382.1</v>
       </c>
       <c r="D113" t="n">
-        <v>173.0710526315789</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>0</v>
-      </c>
-      <c r="C114" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
+        <v>164.5095</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -37723,7 +37415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R58"/>
+  <dimension ref="A1:R57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -39722,7 +39414,7 @@
         <v>5098.625344</v>
       </c>
       <c r="N46" t="n">
-        <v>6710.6</v>
+        <v>667.88</v>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
@@ -39814,7 +39506,7 @@
         <v>5942.625344</v>
       </c>
       <c r="N48" t="n">
-        <v>6792</v>
+        <v>5567.176</v>
       </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
@@ -39906,7 +39598,7 @@
         <v>18839.405344</v>
       </c>
       <c r="N50" t="n">
-        <v>6796.484736842105</v>
+        <v>6490.0545</v>
       </c>
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
@@ -40014,7 +39706,7 @@
         <v>5098.625344</v>
       </c>
       <c r="R52" t="n">
-        <v>6710.6</v>
+        <v>667.88</v>
       </c>
     </row>
     <row r="53">
@@ -40106,7 +39798,7 @@
         <v>5942.625344</v>
       </c>
       <c r="R54" t="n">
-        <v>6792</v>
+        <v>5567.176</v>
       </c>
     </row>
     <row r="55">
@@ -40198,7 +39890,7 @@
         <v>18839.405344</v>
       </c>
       <c r="R56" t="n">
-        <v>6796.484736842105</v>
+        <v>6490.0545</v>
       </c>
     </row>
     <row r="57">
@@ -40207,17 +39899,33 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>434.7447</v>
+      </c>
+      <c r="C57" t="n">
+        <v>4858.642</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-130.6338</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="n">
+        <v>11.496174</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-75.62372999999999</v>
+      </c>
       <c r="H57" t="n">
-        <v>6696.7</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
+        <v>667.88</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5098.625344</v>
+      </c>
+      <c r="J57" t="n">
+        <v>34142388.31</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
@@ -40226,44 +39934,6 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>434.7447</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4858.642</v>
-      </c>
-      <c r="D58" t="n">
-        <v>-43.5446</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>-3.832058</v>
-      </c>
-      <c r="G58" t="n">
-        <v>25.20791</v>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="n">
-        <v>5098.625344</v>
-      </c>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -40276,7 +39946,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42191,7 +41861,7 @@
         <v>-899.74706</v>
       </c>
       <c r="L51" t="n">
-        <v>24867</v>
+        <v>24799.92</v>
       </c>
       <c r="M51" t="inlineStr"/>
       <c r="N51" t="inlineStr">
@@ -42203,7 +41873,7 @@
         <v>-899.74706</v>
       </c>
       <c r="P51" t="n">
-        <v>24867</v>
+        <v>24799.92</v>
       </c>
     </row>
     <row r="52">
@@ -42279,7 +41949,7 @@
         <v>5879.452940000001</v>
       </c>
       <c r="L53" t="n">
-        <v>25257.5</v>
+        <v>25165.984</v>
       </c>
       <c r="M53" t="inlineStr"/>
       <c r="N53" t="inlineStr">
@@ -42291,7 +41961,7 @@
         <v>5879.452940000001</v>
       </c>
       <c r="P53" t="n">
-        <v>25257.5</v>
+        <v>25165.984</v>
       </c>
     </row>
     <row r="54">
@@ -42367,7 +42037,7 @@
         <v>12054.85294</v>
       </c>
       <c r="L55" t="n">
-        <v>25462.05263157895</v>
+        <v>25428.946</v>
       </c>
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
@@ -42379,7 +42049,7 @@
         <v>12054.85294</v>
       </c>
       <c r="P55" t="n">
-        <v>25462.05263157895</v>
+        <v>25428.946</v>
       </c>
     </row>
     <row r="56">
@@ -42424,14 +42094,24 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>-995.9159</v>
+      </c>
+      <c r="C57" t="n">
+        <v>82.00023</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-168.34125</v>
+      </c>
+      <c r="E57" t="n">
+        <v>182.50986</v>
+      </c>
       <c r="F57" t="n">
-        <v>24908</v>
-      </c>
-      <c r="G57" t="inlineStr"/>
+        <v>24799.92</v>
+      </c>
+      <c r="G57" t="n">
+        <v>-899.74706</v>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -42441,38 +42121,6 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>-995.9159</v>
-      </c>
-      <c r="C58" t="n">
-        <v>82.00023</v>
-      </c>
-      <c r="D58" t="n">
-        <v>-56.11375</v>
-      </c>
-      <c r="E58" t="n">
-        <v>-60.83662</v>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="n">
-        <v>-899.74706</v>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -42485,7 +42133,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O58"/>
+  <dimension ref="A1:O57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44179,21 +43827,9 @@
         <v>47077.911</v>
       </c>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Russell 2000 </t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>FLOW</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>AVERAGE</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
@@ -44238,14 +43874,18 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>LAST DAY</t>
-        </is>
-      </c>
-      <c r="J51" t="n">
-        <v>314.44189</v>
-      </c>
-      <c r="K51" t="n">
-        <v>2372.77</v>
+          <t xml:space="preserve">Russell 2000 </t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>FLOW</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>AVERAGE</t>
+        </is>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
@@ -44257,7 +43897,7 @@
         <v>314.44189</v>
       </c>
       <c r="O51" t="n">
-        <v>2372.77</v>
+        <v>234.12</v>
       </c>
     </row>
     <row r="52">
@@ -44285,9 +43925,17 @@
         <v>199559.793</v>
       </c>
       <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>LAST DAY</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>314.44189</v>
+      </c>
+      <c r="K52" t="n">
+        <v>234.12</v>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
       <c r="N52" t="inlineStr"/>
@@ -44318,17 +43966,9 @@
         <v>392314.65</v>
       </c>
       <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>LAST 5 DAYS</t>
-        </is>
-      </c>
-      <c r="J53" t="n">
-        <v>1892.94189</v>
-      </c>
-      <c r="K53" t="n">
-        <v>2424.645</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
@@ -44339,7 +43979,7 @@
         <v>1892.94189</v>
       </c>
       <c r="O53" t="n">
-        <v>2424.645</v>
+        <v>1986.54</v>
       </c>
     </row>
     <row r="54">
@@ -44367,9 +44007,17 @@
         <v>414169.823</v>
       </c>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>LAST 5 DAYS</t>
+        </is>
+      </c>
+      <c r="J54" t="n">
+        <v>1892.94189</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1986.54</v>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr"/>
@@ -44400,17 +44048,9 @@
         <v>887524.88</v>
       </c>
       <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>LAST 20 DAYS</t>
-        </is>
-      </c>
-      <c r="J55" t="n">
-        <v>2390.84189</v>
-      </c>
-      <c r="K55" t="n">
-        <v>2461.73</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
@@ -44421,7 +44061,7 @@
         <v>2390.84189</v>
       </c>
       <c r="O55" t="n">
-        <v>2461.73</v>
+        <v>2350.3495</v>
       </c>
     </row>
     <row r="56">
@@ -44449,9 +44089,17 @@
         <v>2092783.14</v>
       </c>
       <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>LAST 20 DAYS</t>
+        </is>
+      </c>
+      <c r="J56" t="n">
+        <v>2390.84189</v>
+      </c>
+      <c r="K56" t="n">
+        <v>2350.3495</v>
+      </c>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr"/>
@@ -44463,14 +44111,24 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>255.9685</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0</v>
+      </c>
+      <c r="D57" t="n">
+        <v>58.47338999999999</v>
+      </c>
       <c r="E57" t="n">
-        <v>2362.59</v>
-      </c>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
+        <v>234.12</v>
+      </c>
+      <c r="F57" t="n">
+        <v>314.44189</v>
+      </c>
+      <c r="G57" t="n">
+        <v>579920.3964</v>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -44479,35 +44137,6 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>255.9685</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0</v>
-      </c>
-      <c r="D58" t="n">
-        <v>19.49113</v>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="n">
-        <v>314.44189</v>
-      </c>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -44520,7 +44149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N58"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46125,7 +45754,7 @@
         <v>-5.815342000000001</v>
       </c>
       <c r="J52" t="n">
-        <v>89.19</v>
+        <v>89.13</v>
       </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
@@ -46137,7 +45766,7 @@
         <v>-5.815342000000001</v>
       </c>
       <c r="N52" t="n">
-        <v>89.19</v>
+        <v>89.13</v>
       </c>
     </row>
     <row r="53">
@@ -46201,7 +45830,7 @@
         <v>-212.515342</v>
       </c>
       <c r="J54" t="n">
-        <v>89.7</v>
+        <v>89.586</v>
       </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
@@ -46213,7 +45842,7 @@
         <v>-212.515342</v>
       </c>
       <c r="N54" t="n">
-        <v>89.7</v>
+        <v>89.586</v>
       </c>
     </row>
     <row r="55">
@@ -46277,7 +45906,7 @@
         <v>571.1646580000001</v>
       </c>
       <c r="J56" t="n">
-        <v>90.49736842105263</v>
+        <v>90.429</v>
       </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
@@ -46289,7 +45918,7 @@
         <v>571.1646580000001</v>
       </c>
       <c r="N56" t="n">
-        <v>90.49736842105263</v>
+        <v>90.429</v>
       </c>
     </row>
     <row r="57">
@@ -46298,12 +45927,18 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>-17.81539</v>
+      </c>
+      <c r="C57" t="n">
+        <v>12.000048</v>
+      </c>
       <c r="D57" t="n">
-        <v>89.12</v>
-      </c>
-      <c r="E57" t="inlineStr"/>
+        <v>89.13</v>
+      </c>
+      <c r="E57" t="n">
+        <v>-5.815342000000001</v>
+      </c>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -46313,32 +45948,6 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>-17.81539</v>
-      </c>
-      <c r="C58" t="n">
-        <v>4.000016</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="n">
-        <v>-5.815342000000001</v>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -46351,7 +45960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P58"/>
+  <dimension ref="A1:P57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -48463,14 +48072,24 @@
           <t>2025-11-17</t>
         </is>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="B57" t="n">
+        <v>-39.7588</v>
+      </c>
+      <c r="C57" t="n">
+        <v>14.325548</v>
+      </c>
+      <c r="D57" t="n">
+        <v>-4.766342</v>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
       <c r="F57" t="n">
         <v>186.64</v>
       </c>
-      <c r="G57" t="inlineStr"/>
+      <c r="G57" t="n">
+        <v>-30.199594</v>
+      </c>
       <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -48480,38 +48099,6 @@
       <c r="N57" t="inlineStr"/>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>2025-11-18</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>-19.8794</v>
-      </c>
-      <c r="C58" t="n">
-        <v>-7.162774</v>
-      </c>
-      <c r="D58" t="n">
-        <v>-2.383171</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="n">
-        <v>-30.199594</v>
-      </c>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
